--- a/Data/Simul/Test3/Calib_6.xlsx
+++ b/Data/Simul/Test3/Calib_6.xlsx
@@ -532,88 +532,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1407495020632299</v>
+        <v>0.1417100953266628</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1435576950625593</v>
+        <v>0.1425117647204594</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1437655923439867</v>
+        <v>0.1361817460047139</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1685820098247993</v>
+        <v>0.141573992533326</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1957718578398426</v>
+        <v>0.1400330894350943</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2014992361854857</v>
+        <v>0.1223312888188807</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1984657809816665</v>
+        <v>0.1316575868903991</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1897520901935345</v>
+        <v>0.08006940613768179</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1933386683043</v>
+        <v>0.05074816530888736</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1906625820362967</v>
+        <v>0.06503599831142032</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1781138090461249</v>
+        <v>0.05787947957702502</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1892904637544753</v>
+        <v>0.08178994217600197</v>
       </c>
       <c r="N2" t="n">
-        <v>0.214151563674194</v>
+        <v>0.07405318852000924</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2159722866075156</v>
+        <v>0.08411182826116606</v>
       </c>
       <c r="P2" t="n">
-        <v>0.142151443216941</v>
+        <v>0.09300555929332743</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2011954181255164</v>
+        <v>0.06989905422024957</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2254384718551256</v>
+        <v>0.08402701670123759</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2130866136123542</v>
+        <v>0.096793961965126</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3106181401128885</v>
+        <v>0.1074426890767757</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2904932087151763</v>
+        <v>0.1137585706305151</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3731479124696254</v>
+        <v>0.03731525582533007</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5601303201798711</v>
+        <v>0.02525590854052123</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6315712256476054</v>
+        <v>0.04223404368877253</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7342315164936578</v>
+        <v>0.07703978064316212</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7469049189928537</v>
+        <v>0.1029900344665815</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7795441844567159</v>
+        <v>0.1306655598789699</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7468427207750086</v>
+        <v>0.1365901221032395</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6598189419889329</v>
+        <v>0.1074920759200908</v>
       </c>
     </row>
     <row r="3">
@@ -623,88 +623,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1494235391239664</v>
+        <v>0.1465920496983931</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1410068960444937</v>
+        <v>0.1438155105337466</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1418438844809267</v>
+        <v>0.1617611831939136</v>
       </c>
       <c r="E3" t="n">
-        <v>0.103026300761567</v>
+        <v>0.1466902187880555</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05464242649090884</v>
+        <v>0.1516057530939427</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03913648905139851</v>
+        <v>0.1785343003612012</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05671625267008967</v>
+        <v>0.1641423502214913</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08380906172069424</v>
+        <v>0.2381807153120335</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08859426082380885</v>
+        <v>0.2760907402868857</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05190798788703108</v>
+        <v>0.2609773180875671</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03357907127540811</v>
+        <v>0.3621985376012929</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06189445343602346</v>
+        <v>0.06249185089847355</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06394420299204566</v>
+        <v>0.03472176924271604</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02191956078598385</v>
+        <v>0.02323108011800603</v>
       </c>
       <c r="P3" t="n">
-        <v>0.008700167330311849</v>
+        <v>0.03218257106262595</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02455198041437926</v>
+        <v>0.01195140590453596</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05464783375707627</v>
+        <v>0.007272591213603367</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1182564006037271</v>
+        <v>0.02409829411439146</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06494028734255514</v>
+        <v>0.01665057294123102</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00588542735562161</v>
+        <v>0.006008786442781576</v>
       </c>
       <c r="V3" t="n">
-        <v>0.007373106201846194</v>
+        <v>0.0008728433451101083</v>
       </c>
       <c r="W3" t="n">
-        <v>0.006822346315328704</v>
+        <v>0.0003838131224378273</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001810019389734176</v>
+        <v>0.0001786166006100618</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.002620871006127929</v>
+        <v>0.0001121219677696589</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.006411080345887606</v>
+        <v>3.532124251460836e-05</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0009931642684808187</v>
+        <v>0.0001012810131407051</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0001161829557151056</v>
+        <v>2.080690905232864e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.246908818045542e-05</v>
+        <v>6.949358082528741e-06</v>
       </c>
     </row>
     <row r="4">
@@ -714,88 +714,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1494235493712611</v>
+        <v>0.1465920553635311</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1410068929155071</v>
+        <v>0.1438155121328348</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1418438812991811</v>
+        <v>0.1617612144589997</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1030269113992171</v>
+        <v>0.1466902248714595</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0546433338597394</v>
+        <v>0.151605766713777</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03913729037574625</v>
+        <v>0.1785337913709291</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05671726039301372</v>
+        <v>0.1641421116781851</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08381036621815061</v>
+        <v>0.2381789402107028</v>
       </c>
       <c r="J4" t="n">
-        <v>0.079786646059317</v>
+        <v>0.2760874624346241</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09821947898213075</v>
+        <v>0.2609753507746413</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1102726161376255</v>
+        <v>0.2008576855459495</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0936164909688753</v>
+        <v>0.376239160281384</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0842812525013148</v>
+        <v>0.4325091745468924</v>
       </c>
       <c r="O4" t="n">
-        <v>0.108736277674022</v>
+        <v>0.4087510881721452</v>
       </c>
       <c r="P4" t="n">
-        <v>0.12006952106706</v>
+        <v>0.3651153133593485</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1056146975524868</v>
+        <v>0.4574321842976576</v>
       </c>
       <c r="R4" t="n">
-        <v>0.08507575322812107</v>
+        <v>0.4222460364723896</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05039047996987447</v>
+        <v>0.3617976205075074</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04860821176318682</v>
+        <v>0.3426808003744127</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09871460550659854</v>
+        <v>0.3390049477067638</v>
       </c>
       <c r="V4" t="n">
-        <v>0.06677992615560113</v>
+        <v>0.6498663939788953</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01548024447594452</v>
+        <v>0.7170922867048014</v>
       </c>
       <c r="X4" t="n">
-        <v>0.007220863046896802</v>
+        <v>0.5824417873119418</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001438112858569232</v>
+        <v>0.3171382817827231</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0004569054992263689</v>
+        <v>0.1228341975155303</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.22706638561781e-05</v>
+        <v>0.06447994656494181</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.788538938841235e-06</v>
+        <v>0.01014135125469673</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.091107964395247e-07</v>
+        <v>0.001092502381813115</v>
       </c>
     </row>
     <row r="5">
@@ -805,88 +805,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1494274069555787</v>
+        <v>0.1465941879827946</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1410057149989314</v>
+        <v>0.1438161141165868</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1418426834036497</v>
+        <v>0.1617729843260315</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1030153242768643</v>
+        <v>0.1466925149629779</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05462698733202147</v>
+        <v>0.1516108938705759</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03912293540674683</v>
+        <v>0.1785490098653026</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05669914102945231</v>
+        <v>0.1641520918121172</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08378681776234817</v>
+        <v>0.2382184074832707</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08550972888191612</v>
+        <v>0.2761545492349626</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08380860691550816</v>
+        <v>0.2610189838673849</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07791988908335848</v>
+        <v>0.2332947032561138</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08333375898524856</v>
+        <v>0.3258394804344781</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0947051727795714</v>
+        <v>0.2931602133982272</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09625812395178283</v>
+        <v>0.3335901450703765</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0639158379886023</v>
+        <v>0.3708712702572758</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08953969591511771</v>
+        <v>0.2814881228496102</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09960398977366154</v>
+        <v>0.3375722975408421</v>
       </c>
       <c r="S5" t="n">
-        <v>0.09319275881523946</v>
+        <v>0.3859756467099416</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1325926691159441</v>
+        <v>0.4292383598599011</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1594593445478784</v>
+        <v>0.4576643327970594</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1879413154438764</v>
+        <v>0.1957409616957457</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2491430250636115</v>
+        <v>0.1415798171850754</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2648247284748232</v>
+        <v>0.2537740575905118</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2212232697869578</v>
+        <v>0.5008033962289832</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1854786293612674</v>
+        <v>0.7124041039979828</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.2089637712197327</v>
+        <v>0.7714386753685331</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2517096426448583</v>
+        <v>0.8477027461601351</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3398903087335631</v>
+        <v>0.8907821631317628</v>
       </c>
     </row>
     <row r="6">
@@ -896,88 +896,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1330509811295149</v>
+        <v>0.1372236828429493</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1455112308467617</v>
+        <v>0.141465666450569</v>
       </c>
       <c r="D6" t="n">
-        <v>0.143756567845974</v>
+        <v>0.1152718963677186</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1768814152606747</v>
+        <v>0.137185819832639</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2216834459085054</v>
+        <v>0.1298042160267537</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2388519537477718</v>
+        <v>0.1077070855865164</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2160421032772545</v>
+        <v>0.1196468242675209</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1848167534191273</v>
+        <v>0.06169047948512144</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1744350262255055</v>
+        <v>0.03473990551165701</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2201362225824521</v>
+        <v>0.04304497610762423</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2527552005508689</v>
+        <v>0.03262229926594879</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2092715465964352</v>
+        <v>0.06219310255775298</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1823550563234764</v>
+        <v>0.0735403877036151</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2413958294571124</v>
+        <v>0.06729147006352899</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3215453468318377</v>
+        <v>0.05857932251632054</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2489309628731019</v>
+        <v>0.08568072074030672</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1833137446895452</v>
+        <v>0.07097251382961914</v>
       </c>
       <c r="S6" t="n">
-        <v>0.09567789726348742</v>
+        <v>0.05678943686283724</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1094449681645555</v>
+        <v>0.04450175863938768</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2146234257804154</v>
+        <v>0.03759379835290613</v>
       </c>
       <c r="V6" t="n">
-        <v>0.178872990607341</v>
+        <v>0.04647760078592172</v>
       </c>
       <c r="W6" t="n">
-        <v>0.08580511390836849</v>
+        <v>0.04348530188510681</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05707863283996416</v>
+        <v>0.05383437357489224</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01173584890999136</v>
+        <v>0.05886019361542776</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.003834246344493415</v>
+        <v>0.04034647833339781</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0004669139728383904</v>
+        <v>0.02159798774873225</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.642204309533361e-05</v>
+        <v>0.003549868623263418</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.124764558397508e-06</v>
+        <v>0.0003928262930234178</v>
       </c>
     </row>
     <row r="7">
@@ -987,88 +987,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.144493746115304</v>
+        <v>0.1438390385856302</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1424860789529989</v>
+        <v>0.143061252353201</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1431422736862201</v>
+        <v>0.1469919716244509</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1687391419418205</v>
+        <v>0.1437700293863281</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1975720455986929</v>
+        <v>0.1450339625921556</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2043504459403557</v>
+        <v>0.1260613570791351</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1996378901105588</v>
+        <v>0.1360841886352619</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1888723123418899</v>
+        <v>0.08141134245470474</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2034749789321322</v>
+        <v>0.05100475559918798</v>
       </c>
       <c r="K7" t="n">
-        <v>0.134983103017577</v>
+        <v>0.06528945468705388</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09484560913532622</v>
+        <v>0.08002412252205218</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1531469984125827</v>
+        <v>0.02837306245557817</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1776217279103841</v>
+        <v>0.01758491938427794</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07417174906304579</v>
+        <v>0.01475700109851726</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03085145038410642</v>
+        <v>0.0207069022961949</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.08357687707287356</v>
+        <v>0.008391600826771818</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1679709365217122</v>
+        <v>0.006226582656595731</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3316286976616561</v>
+        <v>0.01663379018752253</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2337368850003673</v>
+        <v>0.01258265300607699</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02684293295905183</v>
+        <v>0.005325704973460159</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03781825907037283</v>
+        <v>0.0007976198759762453</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0391520697581303</v>
+        <v>0.000368500449200319</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01457272499859833</v>
+        <v>0.0001967861067518686</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02392965125601659</v>
+        <v>0.0001383018218942215</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0553081104878489</v>
+        <v>4.957823015033943e-05</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.009775224006134229</v>
+        <v>0.0001346694551097224</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.001274439038598674</v>
+        <v>3.070559133149193e-05</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0002665015783586825</v>
+        <v>1.084909752800675e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1078,88 +1078,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.133431275241145</v>
+        <v>0.1374488902000389</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1454254911787479</v>
+        <v>0.1415141796926023</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1438051169400618</v>
+        <v>0.1162590040241718</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1767288965350571</v>
+        <v>0.137397199625214</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2210599029702895</v>
+        <v>0.1303063182677008</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2379016492924952</v>
+        <v>0.1082831669180349</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2157215715379645</v>
+        <v>0.1201748464950244</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1851525983442554</v>
+        <v>0.06225070891648507</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1748606907730203</v>
+        <v>0.03517442162379519</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2202820185790042</v>
+        <v>0.04365791816430838</v>
       </c>
       <c r="L8" t="n">
-        <v>0.252513804771288</v>
+        <v>0.03312317223161755</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2094462878463594</v>
+        <v>0.06307340119633104</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1829410238190136</v>
+        <v>0.07443034720426199</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2415461724605376</v>
+        <v>0.06826738721625993</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3127662331811408</v>
+        <v>0.05953906121490664</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2465903680465243</v>
+        <v>0.08515691116086835</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1839492701747582</v>
+        <v>0.07168296158571234</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09776715207366141</v>
+        <v>0.05791124965267372</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1000588385005026</v>
+        <v>0.0469031661022149</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2039810551352579</v>
+        <v>0.04064385909651399</v>
       </c>
       <c r="V8" t="n">
-        <v>0.148066490051337</v>
+        <v>0.06892932449302086</v>
       </c>
       <c r="W8" t="n">
-        <v>0.04346688029874533</v>
+        <v>0.07183437211285694</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02292180560237813</v>
+        <v>0.06734033512651977</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.004820729688679146</v>
+        <v>0.04590792394003985</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.001606108968422722</v>
+        <v>0.02134028621384257</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0002044714122418093</v>
+        <v>0.01158187997057241</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.680400378520194e-05</v>
+        <v>0.001964399358281466</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.447356100556573e-07</v>
+        <v>0.0002226338176994807</v>
       </c>
     </row>
   </sheetData>
@@ -1274,88 +1274,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1391664849582982</v>
+        <v>0.1412648124869562</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1417090228794613</v>
+        <v>0.1435029158201321</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1439939108775122</v>
+        <v>0.1463021727013116</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1590816332593692</v>
+        <v>0.1449464187973687</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1318502370167859</v>
+        <v>0.1439792966382918</v>
       </c>
       <c r="G2" t="n">
-        <v>0.14699122188543</v>
+        <v>0.1424983585286776</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09096043060311136</v>
+        <v>0.116582132451765</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1167190778705646</v>
+        <v>0.09382968329500829</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1133251297131102</v>
+        <v>0.07855430348293482</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1318757558033485</v>
+        <v>0.0455884659120197</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1547406306243631</v>
+        <v>0.04095577777546743</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1344397073493154</v>
+        <v>0.03607778053925895</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1564224579555495</v>
+        <v>0.02443650218560139</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09647399936390393</v>
+        <v>0.01766569891202257</v>
       </c>
       <c r="P2" t="n">
-        <v>0.07662950606153729</v>
+        <v>0.009268446447488967</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1303443947029953</v>
+        <v>0.01148550574468649</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07409346717199887</v>
+        <v>0.02085652413511125</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03006265625642452</v>
+        <v>0.009649123514010614</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1089527901667156</v>
+        <v>0.02768768728850396</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05163908982372326</v>
+        <v>0.01403653012100871</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0253692681137985</v>
+        <v>0.01292954996446057</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01286641670001185</v>
+        <v>0.006323276281984083</v>
       </c>
       <c r="X2" t="n">
-        <v>0.009173549630544228</v>
+        <v>0.001604184382146428</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02007597621832014</v>
+        <v>5.328584001189572e-05</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01158978289822802</v>
+        <v>1.177832863334375e-05</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.004012855182118281</v>
+        <v>2.273623474744117e-06</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01177670268051325</v>
+        <v>7.757391622602073e-06</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.001668590199654139</v>
+        <v>2.038257440820112e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1365,88 +1365,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1535091887721334</v>
+        <v>0.1479569973970246</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1452535697005149</v>
+        <v>0.1402084787748321</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1356838857852431</v>
+        <v>0.1269465510708982</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1067404365429815</v>
+        <v>0.1345437857577055</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1558679662987765</v>
+        <v>0.1396158459612021</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1463965704660908</v>
+        <v>0.1441773271715958</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2243480971871365</v>
+        <v>0.1845656353574332</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1865051050782331</v>
+        <v>0.2174478096609923</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2187614613780545</v>
+        <v>0.2385114722229512</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1495615050534306</v>
+        <v>0.2816622059455756</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1494649375431144</v>
+        <v>0.3862765229666253</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2372661008670073</v>
+        <v>0.487067300081759</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2118946627375814</v>
+        <v>0.6508645442139569</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4155183602731074</v>
+        <v>0.7380146749521964</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4839456016271811</v>
+        <v>0.8394005238072472</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3120708893682161</v>
+        <v>0.8186512536160921</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5069703451423058</v>
+        <v>0.725130081914243</v>
       </c>
       <c r="S3" t="n">
-        <v>0.627397098755602</v>
+        <v>0.8329113672929764</v>
       </c>
       <c r="T3" t="n">
-        <v>0.4490145758164705</v>
+        <v>0.674295574500487</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5729037598058824</v>
+        <v>0.78133673988541</v>
       </c>
       <c r="V3" t="n">
-        <v>0.649743518804864</v>
+        <v>0.78434913210843</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6674204760389214</v>
+        <v>0.8393015981054256</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6831879926682919</v>
+        <v>0.881389411146043</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6418430168248077</v>
+        <v>0.9184170268182529</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6669554072042414</v>
+        <v>0.9163087955502893</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7010269220410708</v>
+        <v>0.9236704521152634</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.6787118898474437</v>
+        <v>0.9164900316341287</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6684324618370302</v>
+        <v>0.9245131330993891</v>
       </c>
     </row>
     <row r="4">
@@ -1456,88 +1456,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1535092062511403</v>
+        <v>0.1479570052128697</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1452535745346486</v>
+        <v>0.1402084752494836</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1356838778148711</v>
+        <v>0.1269465309937058</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1067407490987323</v>
+        <v>0.1345437745033038</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1558677901132902</v>
+        <v>0.1396158406800085</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1463972499557411</v>
+        <v>0.1441774322739741</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2243471052637718</v>
+        <v>0.1845649613527681</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1865049083326526</v>
+        <v>0.2174461935685585</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1701481927527432</v>
+        <v>0.2385090628578369</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1944733984381363</v>
+        <v>0.281657722372257</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1673274048484259</v>
+        <v>0.2153212812175535</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1412493426766172</v>
+        <v>0.1524790479913956</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1149733780710879</v>
+        <v>0.08048727222332744</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05542723928356035</v>
+        <v>0.0478526990685342</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03836958701850404</v>
+        <v>0.01902926124105455</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0898257625769117</v>
+        <v>0.01686670707557691</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03804194152337328</v>
+        <v>0.02771444124478646</v>
       </c>
       <c r="S4" t="n">
-        <v>0.009333820187688179</v>
+        <v>0.00942459066442883</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01889178323413029</v>
+        <v>0.02422923565243247</v>
       </c>
       <c r="U4" t="n">
-        <v>0.004443897824149001</v>
+        <v>0.004841183720653518</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001398854511313176</v>
+        <v>0.002295790363123399</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0003337682765420855</v>
+        <v>0.000716993530512024</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0001716524062265654</v>
+        <v>7.451923709463765e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.048819510915556e-05</v>
+        <v>1.339238991712896e-06</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.953139802173081e-05</v>
+        <v>4.547039949019609e-08</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.321717612124248e-06</v>
+        <v>2.530320138910222e-09</v>
       </c>
       <c r="AB4" t="n">
-        <v>4.170508285964241e-07</v>
+        <v>5.242475733910875e-10</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.280988815094319e-08</v>
+        <v>3.218804367144848e-11</v>
       </c>
     </row>
     <row r="5">
@@ -1547,88 +1547,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.153515786292536</v>
+        <v>0.1479599474656619</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1452553944363968</v>
+        <v>0.1402071481921552</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1356808776445419</v>
+        <v>0.1269389733726744</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1067328145744983</v>
+        <v>0.1345395379548104</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1558672628762862</v>
+        <v>0.1396138525619616</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1463819806665086</v>
+        <v>0.1441734455439311</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2243592538579716</v>
+        <v>0.184573995410329</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1865040296651393</v>
+        <v>0.2174712110812989</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1814103812848893</v>
+        <v>0.2385476384020195</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2104439206547387</v>
+        <v>0.2817319272288863</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2477148664766305</v>
+        <v>0.2542743697339931</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2154764577375257</v>
+        <v>0.2253061951281663</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2528607275012536</v>
+        <v>0.1537123660267918</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1549438982054129</v>
+        <v>0.1117239361243123</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1226818747818876</v>
+        <v>0.05909064147701555</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2110218987387958</v>
+        <v>0.07287323881951467</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1190925065969661</v>
+        <v>0.1322597305372541</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04770093278951559</v>
+        <v>0.06074223713741249</v>
       </c>
       <c r="T5" t="n">
-        <v>0.175386647453297</v>
+        <v>0.1746435494471597</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07277920432826919</v>
+        <v>0.08685487033986994</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03306974716142955</v>
+        <v>0.07233952421545076</v>
       </c>
       <c r="W5" t="n">
-        <v>0.014762104458267</v>
+        <v>0.0327054971601332</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01002894223300085</v>
+        <v>0.007015213281538249</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01408034127108115</v>
+        <v>0.0001771424534975603</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.00738175962283871</v>
+        <v>2.548418409297411e-05</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.00213048223977217</v>
+        <v>3.74364290240338e-06</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.00356719181515253</v>
+        <v>1.537456841220167e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.000406488137486525</v>
+        <v>3.13119874101263e-06</v>
       </c>
     </row>
     <row r="6">
@@ -1638,88 +1638,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1272423623305174</v>
+        <v>0.1351928951889671</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1396805863871278</v>
+        <v>0.1470306507247069</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1547978109560049</v>
+        <v>0.1683785924779096</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1830689810468299</v>
+        <v>0.155889732144123</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1366362513998173</v>
+        <v>0.1476116806772107</v>
       </c>
       <c r="G6" t="n">
-        <v>0.136321567139653</v>
+        <v>0.1423469757949982</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0747260756207391</v>
+        <v>0.1077867257205062</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1059791022697616</v>
+        <v>0.0811946443295582</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09603835782785207</v>
+        <v>0.06481043613533942</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1072753802918078</v>
+        <v>0.03279213305715931</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08624257138697623</v>
+        <v>0.02463014972166689</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07261721987333498</v>
+        <v>0.0170084091585299</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05662673216613449</v>
+        <v>0.008739592084716094</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02584990903562918</v>
+        <v>0.005081948193739894</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01727065600781082</v>
+        <v>0.001961453546931219</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0384392326827283</v>
+        <v>0.001538526178156524</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01515924539140245</v>
+        <v>0.002410153955656959</v>
       </c>
       <c r="S6" t="n">
-        <v>0.003320557725145389</v>
+        <v>0.000759558294373377</v>
       </c>
       <c r="T6" t="n">
-        <v>0.00869666324020154</v>
+        <v>0.001789494430896696</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002447310196345811</v>
+        <v>0.0002807619345454212</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0008713283423947784</v>
+        <v>0.0001623704984055688</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0002571311300188183</v>
+        <v>5.737991951321825e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0001467299836913732</v>
+        <v>7.490489279719571e-06</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.30636394512498e-05</v>
+        <v>1.308187665553969e-07</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.73858308252052e-05</v>
+        <v>6.157961174557578e-09</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.122137975581076e-06</v>
+        <v>3.501983598007254e-10</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.913775473299726e-07</v>
+        <v>7.793715830512287e-11</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.269093012635975e-08</v>
+        <v>4.950457614867669e-12</v>
       </c>
     </row>
     <row r="7">
@@ -1729,88 +1729,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1452440872369973</v>
+        <v>0.1441724771807474</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1430965210894241</v>
+        <v>0.1420013145144653</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1399928238527731</v>
+        <v>0.1373314458627286</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1556762200004747</v>
+        <v>0.1402310989237961</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1276979614400661</v>
+        <v>0.1421242002824908</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1410998291245725</v>
+        <v>0.1403314293087207</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08623567038556179</v>
+        <v>0.1139402191329454</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1117047437348982</v>
+        <v>0.09111072121338346</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1241379570976697</v>
+        <v>0.0759236529443927</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09874289339375444</v>
+        <v>0.04347642177620821</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1075375655153288</v>
+        <v>0.05365583628265376</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1257064436450935</v>
+        <v>0.06484513561988636</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1499302934400394</v>
+        <v>0.07289640523120422</v>
       </c>
       <c r="O7" t="n">
-        <v>0.225433199031576</v>
+        <v>0.07449895047843075</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2434062549724076</v>
+        <v>0.0692530421246127</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1784262182831614</v>
+        <v>0.0769899905723877</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2307588842566031</v>
+        <v>0.0891125383282574</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2786500522875377</v>
+        <v>0.08571144716873258</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2312625903338657</v>
+        <v>0.09543966758544867</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2938442155529388</v>
+        <v>0.1123391614504526</v>
       </c>
       <c r="V7" t="n">
-        <v>0.288910543106309</v>
+        <v>0.1277662731256138</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3041971661548976</v>
+        <v>0.1208440787707805</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2972043063391754</v>
+        <v>0.1099034591573379</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3238551304368965</v>
+        <v>0.08135097396855463</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3140255467253729</v>
+        <v>0.08365388655617813</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2928239804099204</v>
+        <v>0.07632352752113905</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3059431602021779</v>
+        <v>0.08348683575276272</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3294924260143861</v>
+        <v>0.07548169740398061</v>
       </c>
     </row>
     <row r="8">
@@ -1820,88 +1820,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1278128841583774</v>
+        <v>0.1354958650677731</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1397513309724266</v>
+        <v>0.1468410167242248</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1541668130690537</v>
+        <v>0.1671557335207719</v>
       </c>
       <c r="E8" t="n">
-        <v>0.181959165477114</v>
+        <v>0.1553056519188925</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1362125308549778</v>
+        <v>0.1474392831988344</v>
       </c>
       <c r="G8" t="n">
-        <v>0.136411580762004</v>
+        <v>0.1422950313781024</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07502336708170798</v>
+        <v>0.107986330574253</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1060830330487505</v>
+        <v>0.08149973685120028</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09617851994568093</v>
+        <v>0.06514343395452546</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1076271463647836</v>
+        <v>0.03309112370789368</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08697202360516108</v>
+        <v>0.02488606230204003</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0732447278511059</v>
+        <v>0.01721613148100366</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05729174812835355</v>
+        <v>0.008863318034402181</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02635339480681024</v>
+        <v>0.005162092270763753</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01769651953067173</v>
+        <v>0.00199663135565009</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03987160364719131</v>
+        <v>0.00159477799358567</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01588360991735057</v>
+        <v>0.002516529884690707</v>
       </c>
       <c r="S8" t="n">
-        <v>0.003534881998086493</v>
+        <v>0.0008016759280655886</v>
       </c>
       <c r="T8" t="n">
-        <v>0.007794949755319423</v>
+        <v>0.001914791095071363</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001942522468691368</v>
+        <v>0.0003107525480598126</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0006367399598908558</v>
+        <v>0.0001573597245161428</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0001629372413412257</v>
+        <v>5.117623165155361e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>8.682673906964497e-05</v>
+        <v>5.722306560208622e-06</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.198341433409952e-05</v>
+        <v>1.008619248230805e-07</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.058632047202041e-05</v>
+        <v>3.75244577055336e-09</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.316271530619218e-06</v>
+        <v>2.167017792601811e-10</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.470263369464789e-07</v>
+        <v>5.088903846055094e-11</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.310624929319817e-09</v>
+        <v>3.310099280942803e-12</v>
       </c>
     </row>
   </sheetData>
@@ -2016,88 +2016,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1407098109466433</v>
+        <v>0.1465153538874024</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1421871286199376</v>
+        <v>0.1458635500163379</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1425469187477869</v>
+        <v>0.1468231945776944</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1626973773406807</v>
+        <v>0.1485870886822012</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1490817596819598</v>
+        <v>0.1492122024040668</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1655832403687317</v>
+        <v>0.1571783007356153</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1856519396935784</v>
+        <v>0.1873144485837046</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1963437594828693</v>
+        <v>0.1803546877968439</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2108553729173115</v>
+        <v>0.1977238045574751</v>
       </c>
       <c r="K2" t="n">
-        <v>0.235015539081515</v>
+        <v>0.1972553380862123</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2582670990762977</v>
+        <v>0.1907008068812164</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2590351299099622</v>
+        <v>0.2318427737861306</v>
       </c>
       <c r="N2" t="n">
-        <v>0.176769899787655</v>
+        <v>0.2535961385981156</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1281137889492957</v>
+        <v>0.1947581162101887</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08896916019805086</v>
+        <v>0.223376930139558</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07457907582148017</v>
+        <v>0.2806027948021406</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05532273919947706</v>
+        <v>0.1501961893306968</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02040655869662485</v>
+        <v>0.1117093547566316</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03741051755126645</v>
+        <v>0.1050212989050252</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01938057747403544</v>
+        <v>0.06286922071136497</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02113300897738796</v>
+        <v>0.06308756094924675</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01109175348573742</v>
+        <v>0.03747394102777171</v>
       </c>
       <c r="X2" t="n">
-        <v>0.006611102758177046</v>
+        <v>0.02294041520722672</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.006780323333846141</v>
+        <v>0.0001152370386501092</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.001968459375714063</v>
+        <v>0.0001133580343324624</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.838890596677367e-05</v>
+        <v>6.959046624111729e-05</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.308547843798132e-06</v>
+        <v>4.32115485024835e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.579784939708981e-08</v>
+        <v>3.075454970265065e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2107,88 +2107,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1494582022075891</v>
+        <v>0.1316512567794978</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1447320723155272</v>
+        <v>0.1347154857777497</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1458694504060308</v>
+        <v>0.1318652909039928</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1107117208955143</v>
+        <v>0.1229255564800285</v>
       </c>
       <c r="F3" t="n">
-        <v>0.133991976414467</v>
+        <v>0.1167317497829267</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1056350501270045</v>
+        <v>0.09944726577748193</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07361513897359799</v>
+        <v>0.03615499146649877</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04236247642864836</v>
+        <v>0.06289849152113003</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01367165779284446</v>
+        <v>0.043117210720716</v>
       </c>
       <c r="K3" t="n">
-        <v>0.009954310822320697</v>
+        <v>0.03201345235649672</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01768660189590381</v>
+        <v>0.02441288391156727</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004841630591515453</v>
+        <v>0.02536787793099418</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001288822765810112</v>
+        <v>0.01092631858458521</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0004858192905906122</v>
+        <v>0.003787414278861912</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0002030124020046721</v>
+        <v>0.007240453106204194</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.105077405873133e-05</v>
+        <v>0.004245399184776655</v>
       </c>
       <c r="R3" t="n">
-        <v>2.118272351603953e-05</v>
+        <v>0.0007019821469568793</v>
       </c>
       <c r="S3" t="n">
-        <v>3.06805584042228e-06</v>
+        <v>0.0003499343738236307</v>
       </c>
       <c r="T3" t="n">
-        <v>1.738086869299396e-05</v>
+        <v>1.88409500097607e-05</v>
       </c>
       <c r="U3" t="n">
-        <v>3.1129251698513e-06</v>
+        <v>6.058475940694101e-06</v>
       </c>
       <c r="V3" t="n">
-        <v>6.041584631689038e-07</v>
+        <v>3.54804784988907e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>1.827032624583539e-07</v>
+        <v>1.120230727548937e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>7.327706854055459e-08</v>
+        <v>4.413637954837232e-08</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.005317701740324e-09</v>
+        <v>4.44243189460168e-10</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.762739369005867e-11</v>
+        <v>4.016388676401013e-10</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.754417311996241e-13</v>
+        <v>1.91897857218611e-10</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.328500756915688e-14</v>
+        <v>9.714480280386348e-11</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.722267775264328e-16</v>
+        <v>6.041570179291399e-11</v>
       </c>
     </row>
     <row r="4">
@@ -2198,88 +2198,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1494582126047027</v>
+        <v>0.131651239329378</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1447320754519901</v>
+        <v>0.1347154720668519</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1458694531974659</v>
+        <v>0.1318652728693384</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1107121349717645</v>
+        <v>0.1229255280843848</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1339920744099585</v>
+        <v>0.1167317155537667</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1056354808405338</v>
+        <v>0.09944742385050984</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07361583017087418</v>
+        <v>0.0361555348596377</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04236309524175949</v>
+        <v>0.06289906941107835</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05192544161579165</v>
+        <v>0.04311800503820741</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05117181689374376</v>
+        <v>0.03201411679872732</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04441781389229955</v>
+        <v>0.03447234567226144</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05317348782848464</v>
+        <v>0.03114198521634378</v>
       </c>
       <c r="N4" t="n">
-        <v>0.06208116919835844</v>
+        <v>0.03549311592227084</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06269760318893891</v>
+        <v>0.04186213961953764</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06065105320670039</v>
+        <v>0.03903433858819232</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.06400237096944519</v>
+        <v>0.03914353052589043</v>
       </c>
       <c r="R4" t="n">
-        <v>0.06099243215831739</v>
+        <v>0.04634839810696901</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05188087695528747</v>
+        <v>0.04528451056487085</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04492719465056711</v>
+        <v>0.047634029998284</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04583807937171913</v>
+        <v>0.04476578513375114</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03537282858410293</v>
+        <v>0.04132913747967953</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04530788286519032</v>
+        <v>0.04767586176023483</v>
       </c>
       <c r="X4" t="n">
-        <v>0.05521303241326567</v>
+        <v>0.05694058621184032</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0520401839248749</v>
+        <v>0.07597501180440645</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.04918162325258955</v>
+        <v>0.07460626288391321</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.05323474973409311</v>
+        <v>0.07652414773866788</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.04573707291095222</v>
+        <v>0.078732729160829</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01025688636576148</v>
+        <v>0.08031732382418789</v>
       </c>
     </row>
     <row r="5">
@@ -2289,88 +2289,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1494621265988084</v>
+        <v>0.1316446702842564</v>
       </c>
       <c r="C5" t="n">
-        <v>0.144733256191022</v>
+        <v>0.1347103105438442</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1458705038595461</v>
+        <v>0.1318584837182891</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1107057295732584</v>
+        <v>0.1229148389165224</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1339913711356868</v>
+        <v>0.1167188306874423</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1056287464455383</v>
+        <v>0.09943317349576865</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07360430048767179</v>
+        <v>0.03614185990564551</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0423525960348047</v>
+        <v>0.06288170192780315</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04517932057208249</v>
+        <v>0.04309913962886613</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05045595172186966</v>
+        <v>0.03199880450165463</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05581214620827731</v>
+        <v>0.03084659475014185</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05545222028775926</v>
+        <v>0.03772482926600311</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03730279152260702</v>
+        <v>0.04104239222738133</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02722830658636551</v>
+        <v>0.03113702063386686</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01902938634745415</v>
+        <v>0.0359216870667131</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01612709945344067</v>
+        <v>0.04501784372344372</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01201915068653992</v>
+        <v>0.02460209810557312</v>
       </c>
       <c r="S5" t="n">
-        <v>0.004501505858403627</v>
+        <v>0.01839158246440654</v>
       </c>
       <c r="T5" t="n">
-        <v>0.007156488441772108</v>
+        <v>0.01744888992871446</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004402127925981169</v>
+        <v>0.0105353978091714</v>
       </c>
       <c r="V5" t="n">
-        <v>0.005598896972215288</v>
+        <v>0.01143578775895604</v>
       </c>
       <c r="W5" t="n">
-        <v>0.003254501144739947</v>
+        <v>0.007526862378168403</v>
       </c>
       <c r="X5" t="n">
-        <v>0.002092538233076092</v>
+        <v>0.004979934415480333</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.003782888685628927</v>
+        <v>9.834199157536561e-05</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.003642531184801962</v>
+        <v>9.769699252872996e-05</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.440390720462281e-05</v>
+        <v>6.367774033190095e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.387375394749277e-06</v>
+        <v>4.166456425540287e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.117425087389461e-07</v>
+        <v>3.074353480648015e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2380,88 +2380,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1330303548434384</v>
+        <v>0.1595400232277555</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1401303903411292</v>
+        <v>0.1546065149090686</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1376608121339371</v>
+        <v>0.158831390390841</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1696687949967374</v>
+        <v>0.1733804319103859</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1487310756984522</v>
+        <v>0.1840701482364971</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1742965952802052</v>
+        <v>0.2023565506421175</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2016837405135641</v>
+        <v>0.2682871475358197</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2369988972663875</v>
+        <v>0.2350708290417003</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2914189517355474</v>
+        <v>0.2482836641726933</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2818667803164652</v>
+        <v>0.2651628360401439</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2382817734984038</v>
+        <v>0.2891931850972863</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2853259189413597</v>
+        <v>0.2510708141796827</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3530263641248356</v>
+        <v>0.2826820313934604</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3903384760220867</v>
+        <v>0.3469694288752791</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4208340547453956</v>
+        <v>0.3161735535670169</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4276379395907454</v>
+        <v>0.2912005060305853</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4440195601721468</v>
+        <v>0.3869668242184095</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4778337868206095</v>
+        <v>0.4150386251680209</v>
       </c>
       <c r="T6" t="n">
-        <v>0.500323831007257</v>
+        <v>0.4183962949039719</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5013890763232939</v>
+        <v>0.4487937167688086</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5596339469814103</v>
+        <v>0.4667740789717946</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5110674960688282</v>
+        <v>0.4498703985354644</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4663039786014028</v>
+        <v>0.4167920157492219</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.4596004960774496</v>
+        <v>0.3233653488311007</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.4555808911217583</v>
+        <v>0.3265132158526125</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.4715843826638276</v>
+        <v>0.3286071066067661</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.4726106483307015</v>
+        <v>0.3309106493886216</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3946885406439785</v>
+        <v>0.3325249664729711</v>
       </c>
     </row>
     <row r="7">
@@ -2471,88 +2471,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1444733966196949</v>
+        <v>0.1400893587129935</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1432579453346183</v>
+        <v>0.1411798836825134</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1442306230643186</v>
+        <v>0.140470924519862</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1658535305638911</v>
+        <v>0.1371313288388038</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1513091416622801</v>
+        <v>0.1343154962259454</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1689782686245591</v>
+        <v>0.1420662792865922</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1902971903281509</v>
+        <v>0.1713641404455663</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2034320929787498</v>
+        <v>0.163454012357844</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09662385512549622</v>
+        <v>0.1787886389440102</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09034350167519276</v>
+        <v>0.179508600249155</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1473735599985951</v>
+        <v>0.1448418285581634</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0569601115529098</v>
+        <v>0.1742483621636985</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01808660880613034</v>
+        <v>0.09608539033255561</v>
       </c>
       <c r="O7" t="n">
-        <v>0.007543065477463961</v>
+        <v>0.03853549276406271</v>
       </c>
       <c r="P7" t="n">
-        <v>0.003385511917971252</v>
+        <v>0.06522749785433637</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0008468565915922574</v>
+        <v>0.04785993655913932</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0004593624991880667</v>
+        <v>0.00843479841194845</v>
       </c>
       <c r="S7" t="n">
-        <v>7.353042067587597e-05</v>
+        <v>0.004445775877871549</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0003862528200299714</v>
+        <v>0.0004203701505578955</v>
       </c>
       <c r="U7" t="n">
-        <v>7.700791407876444e-05</v>
+        <v>0.0001463175605558201</v>
       </c>
       <c r="V7" t="n">
-        <v>1.753913195999129e-05</v>
+        <v>1.180954205753679e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>5.603370558847316e-06</v>
+        <v>3.992348958867204e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>2.335835152041706e-06</v>
+        <v>1.646895401874531e-06</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.048516644350232e-07</v>
+        <v>1.142283704969688e-08</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.172522378172109e-09</v>
+        <v>1.043671987094126e-08</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.713082782174585e-11</v>
+        <v>5.097044138233172e-09</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.340675699597189e-13</v>
+        <v>2.624418440603889e-09</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.473943278928618e-14</v>
+        <v>1.649896146874264e-09</v>
       </c>
     </row>
     <row r="8">
@@ -2562,88 +2562,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1334078961791233</v>
+        <v>0.1589080977787164</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1402271317457753</v>
+        <v>0.1542087830036344</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1379522385909144</v>
+        <v>0.1582854430199823</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1696507116581536</v>
+        <v>0.1721352270876734</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1489026009971953</v>
+        <v>0.1822198571093551</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1742426183134274</v>
+        <v>0.2000710062119145</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2015318598325626</v>
+        <v>0.2645818772031274</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2361470825667809</v>
+        <v>0.2324412079436003</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2903254002409263</v>
+        <v>0.245869536938032</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2811920994888931</v>
+        <v>0.2620468519676101</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2381610054302228</v>
+        <v>0.2855323551293635</v>
       </c>
       <c r="M8" t="n">
-        <v>0.285211500888009</v>
+        <v>0.2486033574571472</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3514443437946034</v>
+        <v>0.2801746129416311</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3835929404852586</v>
+        <v>0.3429503876182031</v>
       </c>
       <c r="P8" t="n">
-        <v>0.406927821182423</v>
+        <v>0.313025539677979</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4167656067992375</v>
+        <v>0.291929989174024</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4271655725608148</v>
+        <v>0.3827497096794463</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4453006731925582</v>
+        <v>0.4047802167943748</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4097783346604144</v>
+        <v>0.4110602751634367</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4289100180657217</v>
+        <v>0.4328835035404074</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3782431751944603</v>
+        <v>0.4173612704934806</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4292725803616828</v>
+        <v>0.4574488319263291</v>
       </c>
       <c r="X8" t="n">
-        <v>0.4697769388818578</v>
+        <v>0.4983453573844493</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.4777958971212182</v>
+        <v>0.6004460484671872</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.4896264938549862</v>
+        <v>0.5986694553982543</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.4750780747609016</v>
+        <v>0.594735472159051</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.4816485828343502</v>
+        <v>0.5902717426162283</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.5950544054498764</v>
+        <v>0.5870962099080199</v>
       </c>
     </row>
   </sheetData>
@@ -2758,88 +2758,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1452105117012723</v>
+        <v>0.1369117921368793</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1476487596793334</v>
+        <v>0.1405258039240342</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1479850147313629</v>
+        <v>0.1440547011327219</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1543903060046675</v>
+        <v>0.144181362285025</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1705718393131661</v>
+        <v>0.1415618615767427</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1762593784128916</v>
+        <v>0.1089200253773078</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1976142660557887</v>
+        <v>0.1427230441469503</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2060536993368474</v>
+        <v>0.1758618972956598</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2303987981647506</v>
+        <v>0.1660860445819388</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2501599378199307</v>
+        <v>0.156153561528864</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2673420577118384</v>
+        <v>0.1675331617450141</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2959937194895984</v>
+        <v>0.1743210442260688</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3542138953636152</v>
+        <v>0.1890716153255068</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3334170547637829</v>
+        <v>0.2026448167350046</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4104271656628726</v>
+        <v>0.1667604949251647</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.285523729103549</v>
+        <v>0.1358796710279283</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2949790491691515</v>
+        <v>0.1270316176012746</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3912831322200734</v>
+        <v>0.1068009994312289</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4009740531954644</v>
+        <v>0.08994751999454499</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2719338870727076</v>
+        <v>0.1121552095776928</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1707437417623822</v>
+        <v>0.07569467405064176</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3445831081909629</v>
+        <v>0.09304831387726827</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6745873377021034</v>
+        <v>0.06090511233625195</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7176097453981513</v>
+        <v>0.2233330406083981</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5856248342162013</v>
+        <v>0.1885961025602074</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6718558583887505</v>
+        <v>0.4412695549674411</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7590277670673761</v>
+        <v>0.4875199106148171</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5418947436696514</v>
+        <v>0.4653901158491466</v>
       </c>
     </row>
     <row r="3">
@@ -2849,88 +2849,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1354338344374321</v>
+        <v>0.1601654020277256</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1263872813402847</v>
+        <v>0.1510799967554288</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1280955777636775</v>
+        <v>0.1402610905450206</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1218829206407799</v>
+        <v>0.1406060351788246</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08901153603926874</v>
+        <v>0.1500209299367277</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09108821780509577</v>
+        <v>0.2004331154311084</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05797008498362622</v>
+        <v>0.1532061150137649</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06705431997108292</v>
+        <v>0.1021688579504608</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03572926300299515</v>
+        <v>0.1246867129227531</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03028429673100372</v>
+        <v>0.1457807158656539</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01472079968293049</v>
+        <v>0.08138426419807995</v>
       </c>
       <c r="M3" t="n">
-        <v>0.009672246429623318</v>
+        <v>0.1344557855264353</v>
       </c>
       <c r="N3" t="n">
-        <v>0.008430574669667068</v>
+        <v>0.09492353439374732</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003017912700706614</v>
+        <v>0.08685744052680817</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01042742817883924</v>
+        <v>0.01080873503365293</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001986192750604343</v>
+        <v>0.002658818173129323</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0005258254796635894</v>
+        <v>0.001137524330629908</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0003776259538188923</v>
+        <v>0.0003285659463510435</v>
       </c>
       <c r="T3" t="n">
-        <v>4.752584033581289e-05</v>
+        <v>9.216886652536915e-05</v>
       </c>
       <c r="U3" t="n">
-        <v>1.455086980140401e-05</v>
+        <v>7.436118863705334e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.011080947508939e-06</v>
+        <v>8.933007684774603e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>4.863698651151263e-07</v>
+        <v>4.600445029651704e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>5.85586765749159e-07</v>
+        <v>4.060504485052762e-07</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.899758511733215e-08</v>
+        <v>2.056392154495059e-06</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.640109720617261e-09</v>
+        <v>1.948258539222989e-07</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.50410839974939e-09</v>
+        <v>2.098484237013234e-07</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.211312070526827e-10</v>
+        <v>5.179510682470942e-08</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.450641597641461e-11</v>
+        <v>4.682332000012358e-09</v>
       </c>
     </row>
     <row r="4">
@@ -2940,88 +2940,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1354338230907142</v>
+        <v>0.1601654302702049</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1263872575411925</v>
+        <v>0.1510800085872503</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1280955543706084</v>
+        <v>0.1402610854692645</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1218832933015017</v>
+        <v>0.1406060299618768</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08901213819675655</v>
+        <v>0.1500209379381979</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09108906704808553</v>
+        <v>0.2004322727522536</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05797106184469566</v>
+        <v>0.1532064494391904</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06705565880379737</v>
+        <v>0.1021698084365125</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07541100306374186</v>
+        <v>0.1246877855953902</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0748548060483301</v>
+        <v>0.1457819600221014</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0815291157418372</v>
+        <v>0.1787498689380828</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08107959626356553</v>
+        <v>0.1356291431681198</v>
       </c>
       <c r="N4" t="n">
-        <v>0.07188779492220804</v>
+        <v>0.1513042596462926</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08256170573337289</v>
+        <v>0.1459963019704856</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06221759541248094</v>
+        <v>0.234513148194189</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.08968131637881679</v>
+        <v>0.2568248902133264</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09657264111589173</v>
+        <v>0.2649492160116568</v>
       </c>
       <c r="S4" t="n">
-        <v>0.09299497533270221</v>
+        <v>0.2757142373320376</v>
       </c>
       <c r="T4" t="n">
-        <v>0.08123610502348509</v>
+        <v>0.2850352691995516</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1270874539465476</v>
+        <v>0.290803075153126</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1371961675064408</v>
+        <v>0.3220989465398756</v>
       </c>
       <c r="W4" t="n">
-        <v>0.05949957570688394</v>
+        <v>0.2797595476780427</v>
       </c>
       <c r="X4" t="n">
-        <v>0.003343410735640066</v>
+        <v>0.2977960152837188</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0003684499078992971</v>
+        <v>0.1093515937031969</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0001336058541196488</v>
+        <v>0.091586482033279</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.036992710994839e-05</v>
+        <v>0.0108178631414881</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.678305901527479e-07</v>
+        <v>0.0002491676381083824</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.092200535579799e-08</v>
+        <v>5.408281370818104e-07</v>
       </c>
     </row>
     <row r="5">
@@ -3031,88 +3031,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1354295516726802</v>
+        <v>0.1601760622511075</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1263782986312401</v>
+        <v>0.1510844625597817</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1280867481485101</v>
+        <v>0.1402591746190259</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1218680086877643</v>
+        <v>0.1406040659009448</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08899520663137504</v>
+        <v>0.1500239497627276</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09106766620566709</v>
+        <v>0.2004512180142976</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05794981375074282</v>
+        <v>0.1532038196936496</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06702742939042601</v>
+        <v>0.1021553356089638</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07477489977730815</v>
+        <v>0.1246716486685289</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08122211660873593</v>
+        <v>0.145763267028104</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08649399485743867</v>
+        <v>0.155653549771963</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09570299765015509</v>
+        <v>0.1632160724685386</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1150320658361611</v>
+        <v>0.176668239715473</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1090140455545101</v>
+        <v>0.1896100542061833</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1327141756674276</v>
+        <v>0.1530116561040122</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09378065237948753</v>
+        <v>0.1256715733168229</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09756181406863094</v>
+        <v>0.1179416242323083</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1294903092233222</v>
+        <v>0.0998164697756862</v>
       </c>
       <c r="T5" t="n">
-        <v>0.142562324892749</v>
+        <v>0.08463950288257081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1090899621819271</v>
+        <v>0.1054406934357773</v>
       </c>
       <c r="V5" t="n">
-        <v>0.08982261431646842</v>
+        <v>0.08086711211384415</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1731923349657365</v>
+        <v>0.1006962452137577</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2578214355517826</v>
+        <v>0.07720989979284135</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2743308839802882</v>
+        <v>0.2327195904139418</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.411130354263369</v>
+        <v>0.2328320861137316</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.3278733666702354</v>
+        <v>0.4784243312469148</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2409559773690352</v>
+        <v>0.5100325403422244</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.4581048983456374</v>
+        <v>0.5345999040508305</v>
       </c>
     </row>
     <row r="6">
@@ -3122,88 +3122,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1539837235054982</v>
+        <v>0.1174296108650223</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1680079572148882</v>
+        <v>0.1302434444538088</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1645365968345917</v>
+        <v>0.146349114868572</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1677139553627447</v>
+        <v>0.145582393578401</v>
       </c>
       <c r="F6" t="n">
-        <v>0.200993004749078</v>
+        <v>0.1310756161530426</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1925681904046573</v>
+        <v>0.08914227205767329</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2212335575088011</v>
+        <v>0.1253511267450846</v>
       </c>
       <c r="I6" t="n">
-        <v>0.200044393722487</v>
+        <v>0.1676680088670155</v>
       </c>
       <c r="J6" t="n">
-        <v>0.223238833003478</v>
+        <v>0.1443718293393679</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2170886323964141</v>
+        <v>0.1233367952321393</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2337987597800526</v>
+        <v>0.1528930061175789</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2257532476732658</v>
+        <v>0.1114135436590754</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1903603557744447</v>
+        <v>0.1239849244034882</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2202671113679459</v>
+        <v>0.1173633851180333</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1460983828447165</v>
+        <v>0.2023798308101844</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.254258547610598</v>
+        <v>0.2348237143766175</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2494504528433599</v>
+        <v>0.2418808052261565</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1841629938364373</v>
+        <v>0.2578762109642732</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1912755388410932</v>
+        <v>0.269967757220177</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2297044839643934</v>
+        <v>0.2431136691709445</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2937751036215095</v>
+        <v>0.2510401039270052</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2534561524584261</v>
+        <v>0.2709949795956529</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05021156441205341</v>
+        <v>0.2878358004401028</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.005942019947869664</v>
+        <v>0.2872511394306639</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.002367898642014109</v>
+        <v>0.3412538092923447</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0001959476261400229</v>
+        <v>0.04711579255381972</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.157327848243205e-05</v>
+        <v>0.001404225760640587</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.479241250077419e-07</v>
+        <v>5.11981585916665e-06</v>
       </c>
     </row>
     <row r="7">
@@ -3213,88 +3213,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1409549928501424</v>
+        <v>0.1467866523744908</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1382091141665078</v>
+        <v>0.1452145947552801</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1394233441669667</v>
+        <v>0.1425497843968135</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1451885705322234</v>
+        <v>0.142859161388045</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1616670442451332</v>
+        <v>0.1456351657974806</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1660496746708562</v>
+        <v>0.1107511809877686</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1868739649028173</v>
+        <v>0.1461776365915172</v>
       </c>
       <c r="I7" t="n">
-        <v>0.192539981324963</v>
+        <v>0.1816404932336839</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1368725832525374</v>
+        <v>0.1701279620785138</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1286380572993615</v>
+        <v>0.1586138981148204</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08139198290970358</v>
+        <v>0.109481429688058</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06464520058917059</v>
+        <v>0.1681925419605974</v>
       </c>
       <c r="N7" t="n">
-        <v>0.06782596461779122</v>
+        <v>0.1385238967349268</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02919149050305163</v>
+        <v>0.1385386903356438</v>
       </c>
       <c r="P7" t="n">
-        <v>0.08780499529242462</v>
+        <v>0.02837499976378377</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01996909532222541</v>
+        <v>0.009085524874520017</v>
       </c>
       <c r="R7" t="n">
-        <v>0.006868692926094307</v>
+        <v>0.004693967553315414</v>
       </c>
       <c r="S7" t="n">
-        <v>0.005630793568139986</v>
+        <v>0.001714324278250378</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001029339856650583</v>
+        <v>0.0006093686535083527</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003451184879475944</v>
+        <v>0.0005613327588177475</v>
       </c>
       <c r="V7" t="n">
-        <v>2.999150413601217e-05</v>
+        <v>9.168866627569515e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>1.820852405483771e-05</v>
+        <v>5.711836406006836e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>2.536193327149115e-05</v>
+        <v>7.01847334155302e-06</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.731017408355466e-06</v>
+        <v>3.741292256757093e-05</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.47583515837239e-07</v>
+        <v>4.976075871784186e-06</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.377108988203728e-07</v>
+        <v>6.404761297110715e-06</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.080116383617245e-07</v>
+        <v>2.026414464774982e-06</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.469644893229433e-09</v>
+        <v>2.528226174307073e-07</v>
       </c>
     </row>
     <row r="8">
@@ -3304,88 +3304,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1535535627422605</v>
+        <v>0.1183650500745696</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1669813314265534</v>
+        <v>0.130771688964416</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1637771639842827</v>
+        <v>0.1462650489685816</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1670729454703184</v>
+        <v>0.1455609517068827</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1997492308252223</v>
+        <v>0.1316615388350809</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1918778054527464</v>
+        <v>0.08986991537959077</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2203872509535282</v>
+        <v>0.1261318083698431</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2002245174503963</v>
+        <v>0.1683355986077037</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2235746197351888</v>
+        <v>0.1453680168135071</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2177521530962238</v>
+        <v>0.1245698022083169</v>
       </c>
       <c r="L8" t="n">
-        <v>0.234723289316199</v>
+        <v>0.1543047195412232</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2271529919046213</v>
+        <v>0.1127718689911647</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1922493488161128</v>
+        <v>0.1255235297805652</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2225306793766298</v>
+        <v>0.1189893111078411</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1503102569412384</v>
+        <v>0.204151135169013</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.254800466454719</v>
+        <v>0.2350558080176555</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2540415243972082</v>
+        <v>0.2423652450446585</v>
       </c>
       <c r="S8" t="n">
-        <v>0.196060169865506</v>
+        <v>0.2577491922721727</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1828751123502219</v>
+        <v>0.2697084131831218</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2618245434766753</v>
+        <v>0.2478516587150045</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3084313702081156</v>
+        <v>0.2701985416946729</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1692501337840704</v>
+        <v>0.2554391948261888</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01401030407838347</v>
+        <v>0.2762457476232951</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001744080750798126</v>
+        <v>0.147305166529077</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0007429538006704349</v>
+        <v>0.1457263490987118</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.431817275687161e-05</v>
+        <v>0.02236584348061543</v>
       </c>
       <c r="AB8" t="n">
-        <v>4.00562174656771e-06</v>
+        <v>0.0007920774346378285</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.262442973174852e-08</v>
+        <v>4.061951077245713e-06</v>
       </c>
     </row>
   </sheetData>
@@ -3500,88 +3500,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1450258706616232</v>
+        <v>0.1422376738558054</v>
       </c>
       <c r="C2" t="n">
-        <v>0.146040531134624</v>
+        <v>0.1436297023279199</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1438562760018361</v>
+        <v>0.1462744578124387</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1270002009068073</v>
+        <v>0.1464362862004225</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09691061945962282</v>
+        <v>0.1472070852629452</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1456900483792438</v>
+        <v>0.159992322296137</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1664347256426404</v>
+        <v>0.1513426343669186</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1494012316613207</v>
+        <v>0.1597449009696253</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1419997633561439</v>
+        <v>0.1706645278078264</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1638440042978865</v>
+        <v>0.1882996452200053</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1697494299545443</v>
+        <v>0.1765175333580538</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1527426001517633</v>
+        <v>0.16340152459764</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1859478613445582</v>
+        <v>0.2086631829546897</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2070269196233972</v>
+        <v>0.1874058703104332</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1875894664925303</v>
+        <v>0.1732558987328622</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07679876945916002</v>
+        <v>0.08446151474423476</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04307805407658791</v>
+        <v>0.1060187800891517</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02016358892452515</v>
+        <v>0.163784691616592</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05680065448243068</v>
+        <v>0.1012862944854305</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02705783736774123</v>
+        <v>0.1598058467561286</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03906744127990511</v>
+        <v>0.06791072688873423</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02372496080238962</v>
+        <v>0.1091622208897956</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01538648071337709</v>
+        <v>0.07121960684572078</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002134854401395606</v>
+        <v>0.04755915824113775</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0002333717896176335</v>
+        <v>0.02723630670484582</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.718335313616714e-05</v>
+        <v>0.01889591654689446</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.284458396246791e-05</v>
+        <v>0.0140507846387588</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.914861750931328e-07</v>
+        <v>0.02553045130112008</v>
       </c>
     </row>
     <row r="3">
@@ -3591,88 +3591,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1362734764666019</v>
+        <v>0.1449160420470192</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1315029084808448</v>
+        <v>0.1397853855500865</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1420466582871203</v>
+        <v>0.1272266873569579</v>
       </c>
       <c r="E3" t="n">
-        <v>0.169332768785092</v>
+        <v>0.1264079586276669</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2145636036337286</v>
+        <v>0.1285304113904321</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1433265698118822</v>
+        <v>0.1038258411205853</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1042604151091854</v>
+        <v>0.1208692217666712</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1365002936164235</v>
+        <v>0.1027351101832284</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2125679430888179</v>
+        <v>0.07325186240998213</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05376591573895758</v>
+        <v>0.04162609158625259</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1023405767947007</v>
+        <v>0.02390294860888224</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04870200260689489</v>
+        <v>0.01610764740048269</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03585865284403879</v>
+        <v>0.01489196197759175</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009054136715380029</v>
+        <v>0.009637201667113361</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00129840549018412</v>
+        <v>0.007771752608230463</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0001944635846009097</v>
+        <v>0.002651625340889944</v>
       </c>
       <c r="R3" t="n">
-        <v>3.805756499367104e-05</v>
+        <v>0.003553502868332467</v>
       </c>
       <c r="S3" t="n">
-        <v>4.420390611970425e-06</v>
+        <v>0.003069762309959676</v>
       </c>
       <c r="T3" t="n">
-        <v>3.886903764368224e-05</v>
+        <v>0.0009046010289688395</v>
       </c>
       <c r="U3" t="n">
-        <v>1.600894106987092e-06</v>
+        <v>0.0005236419758702079</v>
       </c>
       <c r="V3" t="n">
-        <v>3.348583580656785e-07</v>
+        <v>0.0001366993115008331</v>
       </c>
       <c r="W3" t="n">
-        <v>1.054258981985032e-07</v>
+        <v>0.0003010885742886017</v>
       </c>
       <c r="X3" t="n">
-        <v>2.170107427167075e-08</v>
+        <v>0.0001239872143826418</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.893633263355716e-09</v>
+        <v>5.920785174789903e-05</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.576461187484323e-11</v>
+        <v>2.429044938658913e-05</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.501773612135081e-12</v>
+        <v>1.367476881036517e-05</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.99144655574583e-13</v>
+        <v>8.110451288068403e-06</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.826828723649215e-14</v>
+        <v>1.332875676105764e-05</v>
       </c>
     </row>
     <row r="4">
@@ -3682,88 +3682,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1362734662132917</v>
+        <v>0.1449160451314325</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1315028923184936</v>
+        <v>0.1397853813853847</v>
       </c>
       <c r="D4" t="n">
-        <v>0.142046654863659</v>
+        <v>0.127226667750729</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1693323292404242</v>
+        <v>0.1264079380306924</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2145623096202057</v>
+        <v>0.1285303904648165</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1433267703276292</v>
+        <v>0.1038261066109469</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1042609313360081</v>
+        <v>0.1208693068073377</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1365006099881313</v>
+        <v>0.102735366467246</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09505016770122762</v>
+        <v>0.0732522749119537</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1758528056449825</v>
+        <v>0.04162657716184361</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1424685768448751</v>
+        <v>0.04803916603974302</v>
       </c>
       <c r="M4" t="n">
-        <v>0.184581369522205</v>
+        <v>0.05142556158616018</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1736526181026735</v>
+        <v>0.04983834924820909</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1886217756194347</v>
+        <v>0.05331736075066468</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2124720997550633</v>
+        <v>0.05443772715909174</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2343807466887391</v>
+        <v>0.05498577764969376</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2347435512498079</v>
+        <v>0.05553300181611238</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2335514074406948</v>
+        <v>0.05647636155963393</v>
       </c>
       <c r="T4" t="n">
-        <v>0.188423945211307</v>
+        <v>0.05836893990501415</v>
       </c>
       <c r="U4" t="n">
-        <v>0.18767049590233</v>
+        <v>0.06313780540322296</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1428950856045849</v>
+        <v>0.08248356751233392</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1559950444132161</v>
+        <v>0.07056650453730418</v>
       </c>
       <c r="X4" t="n">
-        <v>0.08659303613921983</v>
+        <v>0.08388714932677165</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1006615002011619</v>
+        <v>0.09884572810383375</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0943756553812317</v>
+        <v>0.1509989891629251</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1247204597555784</v>
+        <v>0.1551940492985884</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1072155210302263</v>
+        <v>0.154316622488558</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.09479826498019339</v>
+        <v>0.125473671326018</v>
       </c>
     </row>
     <row r="5">
@@ -3773,88 +3773,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1362696063918786</v>
+        <v>0.1449172062431109</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1314968081866342</v>
+        <v>0.1397838136453758</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1420453659108127</v>
+        <v>0.1272192874501056</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1693384066053751</v>
+        <v>0.1264001847895551</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2145828972732355</v>
+        <v>0.1285225132598392</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1433219027067786</v>
+        <v>0.1038148062571513</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1042509152245718</v>
+        <v>0.1208600682073687</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1364937813109763</v>
+        <v>0.1027242970076357</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1308484033365103</v>
+        <v>0.07324036535983469</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1485791307042837</v>
+        <v>0.04161541886228981</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1550163399117109</v>
+        <v>0.0387828803947234</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1382193467195467</v>
+        <v>0.03576146768753805</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1689568094986641</v>
+        <v>0.0457447752392915</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1886568891077476</v>
+        <v>0.0409027790431986</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1727327859450472</v>
+        <v>0.03775259086716084</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.07199109643722693</v>
+        <v>0.01861416648258805</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04092266761527784</v>
+        <v>0.02325749906962719</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01953027855056</v>
+        <v>0.0356753365696986</v>
       </c>
       <c r="T5" t="n">
-        <v>0.042797128012783</v>
+        <v>0.02229460990978458</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02811154159795593</v>
+        <v>0.03525798046344067</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0441685231837536</v>
+        <v>0.01712453020587753</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02987230630346731</v>
+        <v>0.02458286711352114</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02435500993261529</v>
+        <v>0.01734283696163975</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.003899951497658584</v>
+        <v>0.01231480044677938</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001496128721380589</v>
+        <v>0.007486701199751697</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0001213434996196283</v>
+        <v>0.005452184171968511</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0001205899737625989</v>
+        <v>0.004284439256983019</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.96155429809481e-06</v>
+        <v>0.00792321081619473</v>
       </c>
     </row>
     <row r="6">
@@ -3864,88 +3864,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1526415350565182</v>
+        <v>0.1397379211569577</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1603168548594095</v>
+        <v>0.1476717363897389</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1432815587829532</v>
+        <v>0.1679076999378393</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1194359631868284</v>
+        <v>0.1692372310320192</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08194565174182558</v>
+        <v>0.1645616166666493</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1396482222024511</v>
+        <v>0.1889984894507297</v>
       </c>
       <c r="H6" t="n">
-        <v>0.176999562901228</v>
+        <v>0.1719787803704936</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1461013116202552</v>
+        <v>0.1908547347127157</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09826955190262401</v>
+        <v>0.2241478417345813</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1889507307867263</v>
+        <v>0.2539206351352676</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1490052911870695</v>
+        <v>0.2996226113494368</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2020878994235743</v>
+        <v>0.3262587364743301</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1827409781223941</v>
+        <v>0.2973431469543969</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1891820565345147</v>
+        <v>0.3251413729357391</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2087460394986738</v>
+        <v>0.3395877510046332</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.31226968813261</v>
+        <v>0.4184047147189178</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3474325310883364</v>
+        <v>0.398057283445215</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3716240787817109</v>
+        <v>0.3585037219057393</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3989087152990836</v>
+        <v>0.4084365369949016</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4306709281801923</v>
+        <v>0.3666712434939919</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4882594264034453</v>
+        <v>0.3723561932026848</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4817088669878647</v>
+        <v>0.3769606474969813</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6194136717293582</v>
+        <v>0.3657505075162969</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6468324076659623</v>
+        <v>0.3428658816245319</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.6463810744352112</v>
+        <v>0.2747188437737441</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.6573753260284144</v>
+        <v>0.2785687156882848</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6521156386725508</v>
+        <v>0.279977176491602</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.7311449527180354</v>
+        <v>0.267494940142312</v>
       </c>
     </row>
     <row r="7">
@@ -3955,88 +3955,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1412397023664597</v>
+        <v>0.1434107760590874</v>
       </c>
       <c r="C7" t="n">
-        <v>0.13955580846871</v>
+        <v>0.1418882295086255</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1433575075666851</v>
+        <v>0.1374222071673989</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1258554205220409</v>
+        <v>0.1371234696186853</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09505147353678806</v>
+        <v>0.1389350050592297</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1447614562000315</v>
+        <v>0.1518169026749898</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1669955159832129</v>
+        <v>0.1430679823808062</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1487072037411701</v>
+        <v>0.1517139990300776</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2226202128272046</v>
+        <v>0.1635291724256356</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07983867794820595</v>
+        <v>0.181449211742132</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1319550330577188</v>
+        <v>0.1168799186985868</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07162466929353582</v>
+        <v>0.08484818398494502</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0696154306865551</v>
+        <v>0.08852330119006015</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02630935685230556</v>
+        <v>0.06153184629126636</v>
       </c>
       <c r="P7" t="n">
-        <v>0.005254040509904218</v>
+        <v>0.05141518181045752</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0008611360600315376</v>
+        <v>0.01790643480686055</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0001931688754652234</v>
+        <v>0.02689681457713062</v>
       </c>
       <c r="S7" t="n">
-        <v>2.617360933181998e-05</v>
+        <v>0.02815060952697712</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0002386364598633774</v>
+        <v>0.00909363294891526</v>
       </c>
       <c r="U7" t="n">
-        <v>1.17251305623597e-05</v>
+        <v>0.006060865873699368</v>
       </c>
       <c r="V7" t="n">
-        <v>3.031543520300764e-06</v>
+        <v>0.001660759793454632</v>
       </c>
       <c r="W7" t="n">
-        <v>1.022930250479607e-06</v>
+        <v>0.004315473254953529</v>
       </c>
       <c r="X7" t="n">
-        <v>2.324197731046205e-07</v>
+        <v>0.001865977766991812</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.099614145957162e-08</v>
+        <v>0.0009219070341857736</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.981185869314338e-10</v>
+        <v>0.0003910865796457089</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.781710420776706e-11</v>
+        <v>0.000224308163067268</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.151780629615331e-11</v>
+        <v>0.0001356045922631302</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.135504545574792e-13</v>
+        <v>0.0002249599364743556</v>
       </c>
     </row>
     <row r="8">
@@ -4046,88 +4046,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1522763428436265</v>
+        <v>0.1398643355065869</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1595841965512838</v>
+        <v>0.1474557511928689</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1433659785869336</v>
+        <v>0.1667229925245305</v>
       </c>
       <c r="E8" t="n">
-        <v>0.119704910753432</v>
+        <v>0.1679869317009588</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08238344473459368</v>
+        <v>0.1637129778960881</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1399250303719835</v>
+        <v>0.1877255315894601</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1767979338031535</v>
+        <v>0.1710120061004042</v>
       </c>
       <c r="I8" t="n">
-        <v>0.146295568061723</v>
+        <v>0.1894915916294713</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09864395778747173</v>
+        <v>0.2219139553501863</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1891687348789575</v>
+        <v>0.2514624202922091</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1494647522493806</v>
+        <v>0.296254941550574</v>
       </c>
       <c r="M8" t="n">
-        <v>0.20204211228248</v>
+        <v>0.322196878268904</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1832276494011163</v>
+        <v>0.294995282435761</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1911488655472203</v>
+        <v>0.3220635690015846</v>
       </c>
       <c r="P8" t="n">
-        <v>0.211907162308597</v>
+        <v>0.335779097817564</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3035040996376315</v>
+        <v>0.4029757662568151</v>
       </c>
       <c r="R8" t="n">
-        <v>0.333591969529531</v>
+        <v>0.3866831181344305</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3551000523025653</v>
+        <v>0.3543395165113994</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3127920514968887</v>
+        <v>0.3996153847269851</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3264758709271113</v>
+        <v>0.3685426160336462</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2856061571264326</v>
+        <v>0.458327523085414</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3086976931369135</v>
+        <v>0.4141111981331556</v>
       </c>
       <c r="X8" t="n">
-        <v>0.254251547364582</v>
+        <v>0.4598099343681965</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.246471263344047</v>
+        <v>0.4974333166977836</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.2575137691286757</v>
+        <v>0.5391437821297009</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2177656873329326</v>
+        <v>0.5416511513623862</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2405354057269808</v>
+        <v>0.5472272620805471</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1740535292610661</v>
+        <v>0.5733394377211197</v>
       </c>
     </row>
   </sheetData>
@@ -4242,88 +4242,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1453163347879265</v>
+        <v>0.1429381841596113</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1436355215859741</v>
+        <v>0.1451863210052608</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1440021724924303</v>
+        <v>0.1479863574844732</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1703562236727303</v>
+        <v>0.1489989125834436</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1769956627377994</v>
+        <v>0.148556622328409</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1783132361229835</v>
+        <v>0.1645793731627407</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1846896692186127</v>
+        <v>0.1779988799286211</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1010785903495905</v>
+        <v>0.1837838306840882</v>
       </c>
       <c r="J2" t="n">
-        <v>0.103283981055822</v>
+        <v>0.15205108660822</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1099382287101648</v>
+        <v>0.1317295551090126</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1216014780961863</v>
+        <v>0.1500328528182435</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0960773925694814</v>
+        <v>0.1384900572043103</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1050558569260161</v>
+        <v>0.1604075043968304</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07326232899426892</v>
+        <v>0.175946885159613</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03413212144160137</v>
+        <v>0.1558358376193271</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07088383250786699</v>
+        <v>0.2050030234795451</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05068053290169842</v>
+        <v>0.1830196995787206</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01774606301817937</v>
+        <v>0.2471039333037257</v>
       </c>
       <c r="T2" t="n">
-        <v>0.009912642523699266</v>
+        <v>0.3023077403408731</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004795178298736513</v>
+        <v>0.3608548677995705</v>
       </c>
       <c r="V2" t="n">
-        <v>0.002822757211477434</v>
+        <v>0.3550676221087457</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001518295098477755</v>
+        <v>0.417265659813948</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0006107626025148984</v>
+        <v>0.4325606247042382</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0001049161501139084</v>
+        <v>0.4254382912149783</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.379907747437649e-05</v>
+        <v>0.4003314445870021</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.068235235620327e-05</v>
+        <v>0.008327358580165414</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.910922792786091e-06</v>
+        <v>0.01062914924505619</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.406676630978081e-10</v>
+        <v>0.00343946742616938</v>
       </c>
     </row>
     <row r="3">
@@ -4333,88 +4333,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1345467591613349</v>
+        <v>0.143498203602586</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1422972460538015</v>
+        <v>0.1370057234505807</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1430529658477564</v>
+        <v>0.1222975731170991</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09593307885694254</v>
+        <v>0.1169261626824907</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09449239811627519</v>
+        <v>0.1245427859152084</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09965852856613346</v>
+        <v>0.09310398863290453</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1019427193777727</v>
+        <v>0.08058988213103145</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2287266815921412</v>
+        <v>0.06344806203293171</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2978256631192785</v>
+        <v>0.1277478362671527</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116744315536386</v>
+        <v>0.1618894155802782</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2913635885447444</v>
+        <v>0.1701590524276679</v>
       </c>
       <c r="M3" t="n">
-        <v>0.393880720764879</v>
+        <v>0.2347953744525556</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3669751216800443</v>
+        <v>0.2120242309982021</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4654243309964532</v>
+        <v>0.1034258194330261</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5984757564863062</v>
+        <v>0.2760866450335919</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4794235133657553</v>
+        <v>0.1559996943076338</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5173420848013983</v>
+        <v>0.2125800154304965</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5935458943817895</v>
+        <v>0.140530408397341</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6352295489021765</v>
+        <v>0.1012372943020067</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6422482143577254</v>
+        <v>0.03384694979757565</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6333923797068266</v>
+        <v>0.06231854744638924</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6078912277123072</v>
+        <v>0.007081011055221064</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6163876056681127</v>
+        <v>0.0170246197567741</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6431039408525696</v>
+        <v>0.05039080606514448</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6673995244446314</v>
+        <v>0.0960092810859504</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.6424770656670717</v>
+        <v>0.3838644484796906</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.665099107586409</v>
+        <v>0.3183936536593802</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6872366561633114</v>
+        <v>0.3557008430549541</v>
       </c>
     </row>
     <row r="4">
@@ -4424,88 +4424,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1345467469622835</v>
+        <v>0.1434982036876336</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1422972434449971</v>
+        <v>0.1370057131770948</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1430529626007215</v>
+        <v>0.1222975457306185</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09593358243998371</v>
+        <v>0.1169261292011012</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09449317403347687</v>
+        <v>0.1245427587763621</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09965959527519215</v>
+        <v>0.09310431673840691</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1019442356777742</v>
+        <v>0.08059062760031213</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2287286702715271</v>
+        <v>0.06344879105759152</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1568296729166617</v>
+        <v>0.1277483820999152</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1205014555127748</v>
+        <v>0.1618895479100837</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1001074236268098</v>
+        <v>0.1403602874654787</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04836828165123197</v>
+        <v>0.1131083267283419</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03505434904446762</v>
+        <v>0.09791225905494307</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01954396775127851</v>
+        <v>0.1574398147003825</v>
       </c>
       <c r="P4" t="n">
-        <v>0.006409876545352095</v>
+        <v>0.04179184833957318</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01536150365390557</v>
+        <v>0.08266269424675714</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00523593355563327</v>
+        <v>0.06381011792318493</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0002156780331946488</v>
+        <v>0.05823791704619391</v>
       </c>
       <c r="T4" t="n">
-        <v>8.680301439093021e-05</v>
+        <v>0.03767444784908384</v>
       </c>
       <c r="U4" t="n">
-        <v>1.706441586060852e-05</v>
+        <v>0.04843292077327132</v>
       </c>
       <c r="V4" t="n">
-        <v>4.098073221989604e-06</v>
+        <v>0.03364643752433265</v>
       </c>
       <c r="W4" t="n">
-        <v>5.433527415873603e-07</v>
+        <v>0.02512554041469609</v>
       </c>
       <c r="X4" t="n">
-        <v>7.252658159824389e-08</v>
+        <v>0.01593989593524756</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.369204924990472e-09</v>
+        <v>0.008441153751556482</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.119492542667502e-10</v>
+        <v>0.002714436745124892</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.792554256457619e-11</v>
+        <v>0.0001703051802775311</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.559369507362304e-12</v>
+        <v>7.377367856764851e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.030861241760236e-14</v>
+        <v>8.575505320881883e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4515,88 +4515,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1345421547332676</v>
+        <v>0.1434982356092054</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1422962612086789</v>
+        <v>0.1370018456548683</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1430517399362406</v>
+        <v>0.1222872365931415</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09592391983330432</v>
+        <v>0.1169135258697735</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09447876267439705</v>
+        <v>0.1245325426362003</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09964005299537207</v>
+        <v>0.09309058853977535</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1019168125771165</v>
+        <v>0.08057067688323942</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2286918464436752</v>
+        <v>0.06343059965938137</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2357677184544109</v>
+        <v>0.1277278716987492</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2524921484659687</v>
+        <v>0.1618733353776534</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2807170557025131</v>
+        <v>0.1851265762096393</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2245800205838562</v>
+        <v>0.1715628721230949</v>
       </c>
       <c r="N5" t="n">
-        <v>0.24719105875822</v>
+        <v>0.1998703516065749</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1714941948523548</v>
+        <v>0.2168207110687122</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07923080364528681</v>
+        <v>0.1977694042951389</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.165712498783219</v>
+        <v>0.2626487039979464</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1167821982978438</v>
+        <v>0.2336894253744587</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0395542826739372</v>
+        <v>0.3148325259214326</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02082495547508863</v>
+        <v>0.3832966605923112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.008652902944526166</v>
+        <v>0.4627634226618755</v>
       </c>
       <c r="V5" t="n">
-        <v>0.004421795299935923</v>
+        <v>0.4282432852206313</v>
       </c>
       <c r="W5" t="n">
-        <v>0.001878366248975857</v>
+        <v>0.5112618120233376</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0006350767693875618</v>
+        <v>0.4867372017134108</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.165033097460932e-05</v>
+        <v>0.4293333142185958</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.949709160877861e-05</v>
+        <v>0.3350847341505987</v>
       </c>
       <c r="AA5" t="n">
-        <v>4.261021054901423e-06</v>
+        <v>0.00285985786585161</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.264657718956162e-06</v>
+        <v>0.003114503495751277</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.164628792572037e-12</v>
+        <v>0.0008420817420235091</v>
       </c>
     </row>
     <row r="6">
@@ -4606,88 +4606,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1554993266598535</v>
+        <v>0.1415899492593328</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1430574651343959</v>
+        <v>0.1511269266199083</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1412784764861789</v>
+        <v>0.1751491115027938</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1849805711767571</v>
+        <v>0.1839405735705372</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1807097183373526</v>
+        <v>0.170455892174731</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1719456369512211</v>
+        <v>0.2019386534999011</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1626257248597463</v>
+        <v>0.2078817824205864</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05764813738889484</v>
+        <v>0.2277882473384078</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03747691731998342</v>
+        <v>0.162524945835571</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02741706746824175</v>
+        <v>0.131071213571006</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02181849738286441</v>
+        <v>0.1083309486768404</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00994459580966269</v>
+        <v>0.08603285247773748</v>
       </c>
       <c r="N6" t="n">
-        <v>0.006743491165620005</v>
+        <v>0.07159247567263444</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003549423568862898</v>
+        <v>0.1193925807535684</v>
       </c>
       <c r="P6" t="n">
-        <v>0.001067952440119716</v>
+        <v>0.02770737080747695</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002438374216601028</v>
+        <v>0.05971370612281844</v>
       </c>
       <c r="R6" t="n">
-        <v>0.000673862768654464</v>
+        <v>0.04441678186481979</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33379499351938e-05</v>
+        <v>0.03389689085554929</v>
       </c>
       <c r="T6" t="n">
-        <v>5.86216640547361e-06</v>
+        <v>0.01662254124763314</v>
       </c>
       <c r="U6" t="n">
-        <v>1.480257919999893e-06</v>
+        <v>0.01843866348355488</v>
       </c>
       <c r="V6" t="n">
-        <v>4.62443119214891e-07</v>
+        <v>0.01409162001777253</v>
       </c>
       <c r="W6" t="n">
-        <v>8.961446455320062e-08</v>
+        <v>0.01309909524171483</v>
       </c>
       <c r="X6" t="n">
-        <v>1.658859925613149e-08</v>
+        <v>0.009528211945803763</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.882178794052137e-10</v>
+        <v>0.005985960326363284</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.460108819861371e-10</v>
+        <v>0.002581803782382697</v>
       </c>
       <c r="AA6" t="n">
-        <v>4.418352707029553e-12</v>
+        <v>0.0001542846750965885</v>
       </c>
       <c r="AB6" t="n">
-        <v>4.008723239342462e-13</v>
+        <v>6.870468195064697e-05</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.508095448584284e-15</v>
+        <v>8.187649258659012e-06</v>
       </c>
     </row>
     <row r="7">
@@ -4697,88 +4697,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1405623195656747</v>
+        <v>0.143301207844711</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1432841067988772</v>
+        <v>0.1417995164396181</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1440586587684976</v>
+        <v>0.1362699287319515</v>
       </c>
       <c r="E7" t="n">
-        <v>0.172133098966902</v>
+        <v>0.1342179001450818</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1779699320244967</v>
+        <v>0.137972509689454</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1783848902220005</v>
+        <v>0.1538770875902078</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1833423187933108</v>
+        <v>0.1658050059568542</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09638665862251948</v>
+        <v>0.1721584285113444</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1304821429543035</v>
+        <v>0.1403267338868155</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1498318939702135</v>
+        <v>0.1207300056115699</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1619240053969581</v>
+        <v>0.1374850435645296</v>
       </c>
       <c r="M7" t="n">
-        <v>0.216865488747147</v>
+        <v>0.1697495558887163</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2319727168276549</v>
+        <v>0.1862061089464525</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2630070139840798</v>
+        <v>0.1072261881853469</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2795508658560669</v>
+        <v>0.2727547891601763</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2635687716459298</v>
+        <v>0.1741807369393742</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3085417500806155</v>
+        <v>0.2177736130719352</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3489083854488687</v>
+        <v>0.170359251887195</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3339334125609262</v>
+        <v>0.1409692139253181</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3442837145014906</v>
+        <v>0.05532369292330394</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3593581286864895</v>
+        <v>0.09205440143209356</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3887114212640339</v>
+        <v>0.01442954744353809</v>
       </c>
       <c r="X7" t="n">
-        <v>0.3823664574062382</v>
+        <v>0.03042043121299973</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3567094881014971</v>
+        <v>0.07604735756113809</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3325271785518067</v>
+        <v>0.1617340278974824</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.3575079909348038</v>
+        <v>0.6045346712150966</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3348957168308976</v>
+        <v>0.6676797757476869</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3127633434888423</v>
+        <v>0.6399959409467659</v>
       </c>
     </row>
     <row r="8">
@@ -4788,88 +4788,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1549863581296593</v>
+        <v>0.1416760158369199</v>
       </c>
       <c r="C8" t="n">
-        <v>0.143132155773275</v>
+        <v>0.1508739536526691</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1415030238681746</v>
+        <v>0.1737122468399225</v>
       </c>
       <c r="E8" t="n">
-        <v>0.18473952505338</v>
+        <v>0.1820767959475719</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1808603520762022</v>
+        <v>0.1693968884796354</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1723980598670971</v>
+        <v>0.2003059918360638</v>
       </c>
       <c r="H8" t="n">
-        <v>0.163538519495667</v>
+        <v>0.2065631450793554</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05873941533165191</v>
+        <v>0.2259420407162551</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03833390417953999</v>
+        <v>0.1618731436035764</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02814477431899802</v>
+        <v>0.1308169268403963</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02246795124992394</v>
+        <v>0.1085052388376006</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01028349987374171</v>
+        <v>0.08626096112524367</v>
       </c>
       <c r="N8" t="n">
-        <v>0.007007405597976943</v>
+        <v>0.07198706932436258</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003718739852701922</v>
+        <v>0.1197480006993508</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001132623585266932</v>
+        <v>0.02805410474471557</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.002611505826722573</v>
+        <v>0.05979144090592507</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0007436375941562068</v>
+        <v>0.04471034675638417</v>
       </c>
       <c r="S8" t="n">
-        <v>1.6358494095254e-05</v>
+        <v>0.03503907258856234</v>
       </c>
       <c r="T8" t="n">
-        <v>6.775357312916064e-06</v>
+        <v>0.01789210174277396</v>
       </c>
       <c r="U8" t="n">
-        <v>1.44522374084686e-06</v>
+        <v>0.02033948256084824</v>
       </c>
       <c r="V8" t="n">
-        <v>3.785789293147333e-07</v>
+        <v>0.01457808625003504</v>
       </c>
       <c r="W8" t="n">
-        <v>5.670899893622415e-08</v>
+        <v>0.01173733400754429</v>
       </c>
       <c r="X8" t="n">
-        <v>8.438565764649574e-09</v>
+        <v>0.007789014731525741</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.074219443378168e-10</v>
+        <v>0.004363116862223611</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.651860974902604e-11</v>
+        <v>0.00154427175145901</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.369258968706046e-12</v>
+        <v>8.90740038215858e-05</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.21309562748832e-13</v>
+        <v>4.043949160710939e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.325671255870402e-15</v>
+        <v>4.903675507542539e-06</v>
       </c>
     </row>
   </sheetData>
@@ -4984,88 +4984,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.140353510858965</v>
+        <v>0.1478581864397959</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1390059209646838</v>
+        <v>0.147312504987625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1413891883887258</v>
+        <v>0.1484997848221</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1620187628074012</v>
+        <v>0.1491376838687311</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1729902033194942</v>
+        <v>0.1493380356679808</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1928933996552582</v>
+        <v>0.1604695591270812</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1928746271919498</v>
+        <v>0.1433525247373684</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1734542578643313</v>
+        <v>0.1495212349677327</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1977302869509892</v>
+        <v>0.1238259692171755</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2347342420686287</v>
+        <v>0.1410653143491009</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2030290387646706</v>
+        <v>0.1362877060890437</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2199077672534399</v>
+        <v>0.1504441298822867</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2035549329085111</v>
+        <v>0.1576013947888069</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2303048700560718</v>
+        <v>0.1239058806437173</v>
       </c>
       <c r="P2" t="n">
-        <v>0.183246496295408</v>
+        <v>0.1571598057336953</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07535467380002003</v>
+        <v>0.1005145789492149</v>
       </c>
       <c r="R2" t="n">
-        <v>0.06340926484505489</v>
+        <v>0.1581523567319493</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0938796137105794</v>
+        <v>0.1646445658786858</v>
       </c>
       <c r="T2" t="n">
-        <v>0.08254375429265896</v>
+        <v>0.1377746964091199</v>
       </c>
       <c r="U2" t="n">
-        <v>0.008606333749163137</v>
+        <v>0.07427178080298827</v>
       </c>
       <c r="V2" t="n">
-        <v>0.005229295506538592</v>
+        <v>0.05228473522502169</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02216943270060909</v>
+        <v>0.02148408563747051</v>
       </c>
       <c r="X2" t="n">
-        <v>0.005873177769163682</v>
+        <v>0.04296322322166975</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002079333333419902</v>
+        <v>0.007623884352219889</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.649293205750947e-08</v>
+        <v>0.002754540008371859</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.177264092324175e-09</v>
+        <v>0.000861309734708397</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.39265022657928e-10</v>
+        <v>0.0006343062843789253</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.799896972530679e-11</v>
+        <v>0.0003265882903730177</v>
       </c>
     </row>
     <row r="3">
@@ -5075,88 +5075,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1506859722665359</v>
+        <v>0.1234332577339211</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1555132384914087</v>
+        <v>0.1266915995341403</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1483341163793432</v>
+        <v>0.1221777084068789</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1136884191236345</v>
+        <v>0.1149792031753549</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1078014941597259</v>
+        <v>0.1175210324438834</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06568582903381109</v>
+        <v>0.08788616499755297</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05328611966508125</v>
+        <v>0.1232193246460445</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09813070554693686</v>
+        <v>0.1234561184850976</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01723671033978917</v>
+        <v>0.1677913390438398</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01335426425855269</v>
+        <v>0.1534998113999805</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007257394443567206</v>
+        <v>0.1192150627049811</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01338222916260464</v>
+        <v>0.1288584063442867</v>
       </c>
       <c r="N3" t="n">
-        <v>0.006241391791747245</v>
+        <v>0.06330757812691978</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002014362153023824</v>
+        <v>0.02619236575483644</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0006098284865647942</v>
+        <v>0.02493806387736103</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.149300954028382e-07</v>
+        <v>0.003152585156527614</v>
       </c>
       <c r="R3" t="n">
-        <v>1.217676023561364e-07</v>
+        <v>0.009275264117341937</v>
       </c>
       <c r="S3" t="n">
-        <v>4.980099060497496e-07</v>
+        <v>0.001174300509071669</v>
       </c>
       <c r="T3" t="n">
-        <v>9.197840344051481e-08</v>
+        <v>0.0006890161604135388</v>
       </c>
       <c r="U3" t="n">
-        <v>2.437287374125793e-09</v>
+        <v>0.0001990668116553193</v>
       </c>
       <c r="V3" t="n">
-        <v>4.477740807237107e-10</v>
+        <v>8.92986676654642e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>6.846399257065682e-10</v>
+        <v>1.986760770303596e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>7.899917103870527e-11</v>
+        <v>1.079427752668552e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.905963021439301e-11</v>
+        <v>8.531047297206522e-07</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.18829679528784e-14</v>
+        <v>1.766348946253793e-07</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.677880641008791e-15</v>
+        <v>3.861437239729526e-08</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.50116769833587e-17</v>
+        <v>2.361917122465851e-08</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.229255299172317e-18</v>
+        <v>9.898182460859927e-09</v>
       </c>
     </row>
     <row r="4">
@@ -5166,88 +5166,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1506859844279431</v>
+        <v>0.1234332314013509</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1555132573446338</v>
+        <v>0.1266915768329494</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1483341238674208</v>
+        <v>0.1221776797616394</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1136888558118363</v>
+        <v>0.11497916790506</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1078023596398655</v>
+        <v>0.117520998517696</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06568668095067201</v>
+        <v>0.08788635664862378</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05328686607037843</v>
+        <v>0.1232190187006946</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09813149870175079</v>
+        <v>0.1234563790975882</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1307166747231404</v>
+        <v>0.1677909367876807</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1235612202326919</v>
+        <v>0.1535004612562184</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1383764807225711</v>
+        <v>0.1754546841732273</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1280133342875263</v>
+        <v>0.1553791092893634</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1414361360345328</v>
+        <v>0.1921609445800483</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1448726046710633</v>
+        <v>0.2369448746641008</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1623054815566942</v>
+        <v>0.2171489506005071</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1838196380183069</v>
+        <v>0.2642573810873436</v>
       </c>
       <c r="R4" t="n">
-        <v>0.183420680775312</v>
+        <v>0.2348766349424847</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1861903876846235</v>
+        <v>0.2437431863033143</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1678902205201773</v>
+        <v>0.254478319621511</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2147248105522515</v>
+        <v>0.2621534603820663</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1782386708641167</v>
+        <v>0.295315270453746</v>
       </c>
       <c r="W4" t="n">
-        <v>0.115182444170273</v>
+        <v>0.3728375588047684</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1006639413307973</v>
+        <v>0.3169884378615407</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1081261334094381</v>
+        <v>0.3282169363946468</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1060538937858845</v>
+        <v>0.4054511807177282</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.09503921655730753</v>
+        <v>0.4332975766006004</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1143062136346011</v>
+        <v>0.4381637487007065</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.05335426686928122</v>
+        <v>0.4513429634909352</v>
       </c>
     </row>
     <row r="5">
@@ -5257,88 +5257,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1506905625682889</v>
+        <v>0.1234233189423419</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1555203544982925</v>
+        <v>0.126683031273269</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1483369426188968</v>
+        <v>0.1221668967120154</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1136834812238483</v>
+        <v>0.1149658912359799</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1077893707018454</v>
+        <v>0.1175082276470232</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06567309260461285</v>
+        <v>0.08787301217303767</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0532748760525947</v>
+        <v>0.1232103559918634</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09811958178574133</v>
+        <v>0.123437783061162</v>
       </c>
       <c r="J5" t="n">
-        <v>0.111054246130761</v>
+        <v>0.1677788875550079</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1321781277427459</v>
+        <v>0.153471642613564</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1135882812462532</v>
+        <v>0.1477310251872428</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1236136002115505</v>
+        <v>0.1639586149398546</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1135617347097721</v>
+        <v>0.1704956423233626</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1287620076506658</v>
+        <v>0.132602430460299</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1035074375217014</v>
+        <v>0.1692502737734831</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04405865757599076</v>
+        <v>0.1103606392569789</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0372268371265528</v>
+        <v>0.1712590981752022</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05462904375150478</v>
+        <v>0.1789740439095981</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05687308886423917</v>
+        <v>0.1504143246987999</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01141623572934534</v>
+        <v>0.08193113476411999</v>
       </c>
       <c r="V5" t="n">
-        <v>0.008813688241631482</v>
+        <v>0.06164039494235918</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03636101140736125</v>
+        <v>0.02869171312098795</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01218721211929602</v>
+        <v>0.05292507071894191</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.004776292709696404</v>
+        <v>0.01600739769910223</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.291754256829778e-06</v>
+        <v>0.006514923120131393</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.156440340909376e-06</v>
+        <v>0.002241472267415174</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.765486481669744e-08</v>
+        <v>0.001724216649253312</v>
       </c>
       <c r="AC5" t="n">
-        <v>3.872676151541911e-09</v>
+        <v>0.0009410825453545191</v>
       </c>
     </row>
     <row r="6">
@@ -5348,88 +5348,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1311540983208403</v>
+        <v>0.1731999686608403</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1237148686033728</v>
+        <v>0.1678025643182347</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1343562990392054</v>
+        <v>0.1748430532157497</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1650171413962835</v>
+        <v>0.1873544430935957</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1630342256943325</v>
+        <v>0.1824997054071106</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2051828505941586</v>
+        <v>0.2161888209446571</v>
       </c>
       <c r="H6" t="n">
-        <v>0.223398188426367</v>
+        <v>0.1796007693184292</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1767165430831784</v>
+        <v>0.1735831626989178</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2372477594670976</v>
+        <v>0.1316160502500186</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2156070911387666</v>
+        <v>0.1370243273892785</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2494896624358235</v>
+        <v>0.1604999866686623</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2270129139935917</v>
+        <v>0.138400609198684</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2508068026518839</v>
+        <v>0.171682022887917</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2383997024807699</v>
+        <v>0.2238508613704146</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2707457546597122</v>
+        <v>0.1962919299321963</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3485524331615413</v>
+        <v>0.2596899450123005</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3588051345323462</v>
+        <v>0.2040441983685897</v>
       </c>
       <c r="S6" t="n">
-        <v>0.331168537041445</v>
+        <v>0.2026285091043414</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3668621506316134</v>
+        <v>0.2270473730344959</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3662704956349934</v>
+        <v>0.2951701682771239</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4248976970727551</v>
+        <v>0.2851595206523793</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5301233156936636</v>
+        <v>0.2397367868075677</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5673524287878502</v>
+        <v>0.2719463537557414</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5771206221423115</v>
+        <v>0.300895051204449</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.5798435147179603</v>
+        <v>0.2247071940800907</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.5725707475371385</v>
+        <v>0.2229591252250577</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6120746197208281</v>
+        <v>0.2224266466166394</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.5520134839751725</v>
+        <v>0.220833060869434</v>
       </c>
     </row>
     <row r="7">
@@ -5439,88 +5439,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1448214369221073</v>
+        <v>0.1367844329229733</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1462543466256413</v>
+        <v>0.1380705811156637</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1445300984624733</v>
+        <v>0.1366408272422514</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1667632896934591</v>
+        <v>0.1333013823621129</v>
       </c>
       <c r="F7" t="n">
-        <v>0.176983031374768</v>
+        <v>0.1348446227901963</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1996953491549169</v>
+        <v>0.1461994568802893</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2011166173691711</v>
+        <v>0.1296682207445193</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1785896400286267</v>
+        <v>0.134352796182731</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06869790407053419</v>
+        <v>0.1103050316928116</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06427271277120111</v>
+        <v>0.1247526315501067</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03856863031724144</v>
+        <v>0.100995178366786</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06060648335572123</v>
+        <v>0.1248844677945139</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03304272278690651</v>
+        <v>0.07349079059540581</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01396275672851669</v>
+        <v>0.03409272161799913</v>
       </c>
       <c r="P7" t="n">
-        <v>0.004847153193145761</v>
+        <v>0.03956016528328889</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.145622640316497e-06</v>
+        <v>0.005701187465984092</v>
       </c>
       <c r="R7" t="n">
-        <v>4.306554076274866e-06</v>
+        <v>0.01757456751565655</v>
       </c>
       <c r="S7" t="n">
-        <v>1.47829990075449e-05</v>
+        <v>0.003994577978611838</v>
       </c>
       <c r="T7" t="n">
-        <v>3.110214245252411e-06</v>
+        <v>0.002466272712819733</v>
       </c>
       <c r="U7" t="n">
-        <v>7.538319258112102e-08</v>
+        <v>0.0007638867469734821</v>
       </c>
       <c r="V7" t="n">
-        <v>1.526295149222204e-08</v>
+        <v>0.0003614447763304246</v>
       </c>
       <c r="W7" t="n">
-        <v>2.631144733928565e-08</v>
+        <v>8.527823535291467e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>3.230160965403908e-09</v>
+        <v>5.65164649852833e-05</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.041651022949877e-10</v>
+        <v>4.382882425413932e-06</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.86132579744598e-13</v>
+        <v>9.541183853618739e-07</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.106159150765352e-14</v>
+        <v>2.147935488623636e-07</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.863238760532135e-15</v>
+        <v>1.335176968507222e-07</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.13063060173565e-17</v>
+        <v>5.684989328550497e-08</v>
       </c>
     </row>
     <row r="8">
@@ -5530,88 +5530,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1316084346353195</v>
+        <v>0.1718676038987766</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1244780134719671</v>
+        <v>0.1667481419381178</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1347192312439349</v>
+        <v>0.1734940498393652</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1651400499435369</v>
+        <v>0.1852822283591656</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1635993151099685</v>
+        <v>0.1807673775261097</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2051827980065705</v>
+        <v>0.2134966292287581</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2227627052244578</v>
+        <v>0.1777297858610805</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1768577729894346</v>
+        <v>0.1721925255067708</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2373164183176885</v>
+        <v>0.1308917854534659</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2162923417874132</v>
+        <v>0.1366858114417508</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2496905120698729</v>
+        <v>0.159816356810057</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2274636717355656</v>
+        <v>0.1380746625510107</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2513562791166463</v>
+        <v>0.1712616266975396</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2416836962598887</v>
+        <v>0.2224108654886329</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2747378482867736</v>
+        <v>0.1956508107994683</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3482072368914053</v>
+        <v>0.2563236830716504</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3571336543990555</v>
+        <v>0.2048178801487757</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3341171368029337</v>
+        <v>0.2048408163163769</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3258275834986625</v>
+        <v>0.2271299973628401</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3989820465137667</v>
+        <v>0.2855105022150727</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3828206326042325</v>
+        <v>0.305149335282498</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2961637690320058</v>
+        <v>0.3371447097861493</v>
       </c>
       <c r="X8" t="n">
-        <v>0.3139232366837328</v>
+        <v>0.3151096036995942</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3078976175819092</v>
+        <v>0.347251494362427</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.3140962632486685</v>
+        <v>0.3605710313203976</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.3323888732879062</v>
+        <v>0.3406402627642972</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2736190986504389</v>
+        <v>0.337050924612154</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.3946322452648711</v>
+        <v>0.3265562380558276</v>
       </c>
     </row>
   </sheetData>
